--- a/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
+++ b/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T14:14:23+00:00</t>
+    <t>2025-12-15T09:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,10 +116,16 @@
     <t>https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-cda-clinical-document</t>
   </si>
   <si>
+    <t>FRLMEnteteDocument</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
+  </si>
+  <si>
     <t>FRLMEnteteDocument.identifiantUniqueDocument</t>
-  </si>
-  <si>
-    <t>equivalent</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -594,7 +600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -945,6 +951,19 @@
         <v>80</v>
       </c>
       <c r="E26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -987,7 +1006,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>30</v>
@@ -995,14 +1014,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1047,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>30</v>
@@ -1055,300 +1074,300 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2"/>
     </row>

--- a/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
+++ b/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T09:06:09+00:00</t>
+    <t>2025-12-15T10:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
+++ b/testMappingEntete/ig/mappingmodelemetierCDAFHIR.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:48:02+00:00</t>
+    <t>2025-12-15T10:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
